--- a/Documentacion/pinout.xlsx
+++ b/Documentacion/pinout.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
   <si>
     <t>PIN</t>
   </si>
@@ -40,18 +41,6 @@
     <t>Funcion A</t>
   </si>
   <si>
-    <t>Bluetooth Rx</t>
-  </si>
-  <si>
-    <t>Display Tx</t>
-  </si>
-  <si>
-    <t>I2C SDA</t>
-  </si>
-  <si>
-    <t>I2C SCL</t>
-  </si>
-  <si>
     <t>PWM_1_MI</t>
   </si>
   <si>
@@ -76,15 +65,6 @@
     <t>IS_2_MD</t>
   </si>
   <si>
-    <t>Boton1</t>
-  </si>
-  <si>
-    <t>Boton2</t>
-  </si>
-  <si>
-    <t>Boton3</t>
-  </si>
-  <si>
     <t>Led1</t>
   </si>
   <si>
@@ -172,40 +152,79 @@
     <t>5_2</t>
   </si>
   <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>12_1</t>
-  </si>
-  <si>
-    <t>11_1</t>
-  </si>
-  <si>
-    <t>A0_1</t>
-  </si>
-  <si>
-    <t>A1_1</t>
-  </si>
-  <si>
-    <t>A2_1</t>
-  </si>
-  <si>
-    <t>A3_1</t>
-  </si>
-  <si>
-    <t>Bluetooth Tx</t>
-  </si>
-  <si>
-    <t>Conecta un arduino con otro, pero necesito sacar los pines para un posible IMU</t>
-  </si>
-  <si>
-    <t>Bluetooth</t>
-  </si>
-  <si>
-    <t>Hay que probar un uart via software, o bien conectarlo al arduino 2</t>
-  </si>
-  <si>
     <t>Falta conexión de raton… aun por estudiar</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>4/A6</t>
+  </si>
+  <si>
+    <t>D/A</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>SCK</t>
+  </si>
+  <si>
+    <t>Interrupcion raton</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>SLAVE</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>6/A7</t>
+  </si>
+  <si>
+    <t>9/A8</t>
+  </si>
+  <si>
+    <t>Boton1/2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>Conexión LCD</t>
+  </si>
+  <si>
+    <t>Interrupcion Mando a distancia</t>
+  </si>
+  <si>
+    <t>Sensor auxiliar</t>
+  </si>
+  <si>
+    <t>7/Int4</t>
   </si>
 </sst>
 </file>
@@ -235,10 +254,195 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -247,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -258,23 +462,68 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,14 +547,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>111079</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>18816</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>98237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -637,15 +886,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -655,7 +904,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,66 +919,328 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F15:K16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="18.85546875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -737,407 +1248,541 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="9">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="9">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="9">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="9">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="9">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="9">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="9">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="9">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10">
+        <v>7</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="9">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10">
+        <v>8</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="9">
+        <v>9</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="9">
+        <v>10</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="9">
         <v>14</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="9">
         <v>15</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="9">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="D37" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="3" t="s">
-        <v>63</v>
-      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F29:K30"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="F3:N3"/>
-    <mergeCell ref="F5:N6"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A39"/>
+    <mergeCell ref="J33:O34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentacion/pinout.xlsx
+++ b/Documentacion/pinout.xlsx
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -508,6 +514,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,7 +540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,14 +1101,14 @@
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -1104,12 +1120,12 @@
       <c r="E16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
@@ -1141,7 +1157,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="B11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1193,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="12">
@@ -1203,7 +1219,7 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -1227,17 +1243,17 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="9">
+      <c r="A4" s="31"/>
+      <c r="B4" s="25">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="5"/>
@@ -1251,17 +1267,17 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="9">
+      <c r="A5" s="31"/>
+      <c r="B5" s="25">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="5"/>
@@ -1275,32 +1291,32 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="9">
+      <c r="A6" s="31"/>
+      <c r="B6" s="25">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="9">
+      <c r="A7" s="31"/>
+      <c r="B7" s="25">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="5"/>
@@ -1309,17 +1325,17 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="9">
+      <c r="A8" s="31"/>
+      <c r="B8" s="25">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="5"/>
@@ -1327,7 +1343,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -1337,14 +1353,14 @@
       <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="24" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -1358,82 +1374,82 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="9">
+      <c r="A11" s="31"/>
+      <c r="B11" s="25">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="9">
+      <c r="A12" s="31"/>
+      <c r="B12" s="25">
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="9">
+      <c r="A13" s="31"/>
+      <c r="B13" s="25">
         <v>14</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="26">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="9">
+      <c r="A14" s="31"/>
+      <c r="B14" s="25">
         <v>15</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="26">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="9">
+      <c r="A15" s="31"/>
+      <c r="B15" s="25">
         <v>16</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="26">
         <v>16</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="10" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1464,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
@@ -1463,7 +1479,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
@@ -1478,7 +1494,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="22" t="s">
         <v>52</v>
       </c>
@@ -1493,7 +1509,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="18">
@@ -1510,53 +1526,53 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="9">
+      <c r="A21" s="31"/>
+      <c r="B21" s="25">
         <v>1</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="9">
+      <c r="A22" s="31"/>
+      <c r="B22" s="25">
         <v>2</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="9">
+      <c r="A23" s="31"/>
+      <c r="B23" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="9">
         <v>4</v>
       </c>
@@ -1566,13 +1582,13 @@
       <c r="D24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="9">
         <v>5</v>
       </c>
@@ -1587,7 +1603,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="9">
         <v>6</v>
       </c>
@@ -1602,7 +1618,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="9">
         <v>7</v>
       </c>
@@ -1617,7 +1633,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="9">
         <v>8</v>
       </c>
@@ -1632,22 +1648,22 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="9">
+      <c r="A29" s="31"/>
+      <c r="B29" s="25">
         <v>9</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="9">
         <v>10</v>
       </c>
@@ -1660,7 +1676,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="9">
         <v>14</v>
       </c>
@@ -1673,7 +1689,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="9">
         <v>15</v>
       </c>
@@ -1686,7 +1702,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="9">
         <v>16</v>
       </c>
@@ -1697,80 +1713,80 @@
       <c r="E33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
